--- a/BurnDownChart_NoWayOut.xlsx
+++ b/BurnDownChart_NoWayOut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f8a05c71c56f492/Dokumen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AreFun\Github\NoWayOut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Project</t>
   </si>
@@ -42,15 +42,6 @@
     <t>Pembuatan Slide</t>
   </si>
   <si>
-    <t>Requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design </t>
-  </si>
-  <si>
-    <t>Graphic</t>
-  </si>
-  <si>
     <t>Penyempurnaan Slide</t>
   </si>
   <si>
@@ -106,6 +97,18 @@
   </si>
   <si>
     <t>Actual - Remaining efforts in uninterrupted working hours</t>
+  </si>
+  <si>
+    <t>Ayo Bergabung!!</t>
+  </si>
+  <si>
+    <t>Atur Tampilan</t>
+  </si>
+  <si>
+    <t>Tentang Earth Hour</t>
+  </si>
+  <si>
+    <t>Apa itu Earth Hour</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -206,15 +209,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,19 +267,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,651 +598,691 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>41805</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>41804</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>41803</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>41802</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>41801</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>41800</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>41799</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <v>41798</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>41797</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>41796</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>41795</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>41794</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>41793</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>41792</v>
       </c>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-    </row>
-    <row r="20" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1">
         <f>SUM(D3:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1">
         <f>D22:$D$22/10</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="e">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F22" s="1" t="e">
         <f>D22:$E$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G22" s="2" t="e">
+      <c r="G22" s="1" t="e">
         <f>D22:$F$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H22" s="2" t="e">
+      <c r="H22" s="1" t="e">
         <f>D22:$G$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="2" t="e">
+      <c r="I22" s="1" t="e">
         <f>D22:$H$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="2" t="e">
+      <c r="J22" s="1" t="e">
         <f>D22:$I$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K22" s="2" t="e">
+      <c r="K22" s="1" t="e">
         <f>D22:$J$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="2" t="e">
+      <c r="L22" s="1" t="e">
         <f>D22:$K$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="2" t="e">
+      <c r="M22" s="1" t="e">
         <f>D22:$L$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N22" s="2" t="e">
+      <c r="N22" s="1" t="e">
         <f>D22:$M$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O22" s="2" t="e">
+      <c r="O22" s="1" t="e">
         <f>D22:$N$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P22" s="2" t="e">
+      <c r="P22" s="1" t="e">
         <f>D22:$O$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q22" s="2" t="e">
+      <c r="Q22" s="1" t="e">
         <f>D22:$P$22/10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R22" s="2" t="e">
+      <c r="R22" s="1" t="e">
         <f>D22:$Q$22/10</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2">
+    <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="1">
         <f>SUM(D3:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" ref="E23:R23" si="0">SUM(E3:E21)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B10:B14"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/BurnDownChart_NoWayOut.xlsx
+++ b/BurnDownChart_NoWayOut.xlsx
@@ -63,9 +63,6 @@
     <t>Perubahan iklim dan gaya hidup</t>
   </si>
   <si>
-    <t>Cara Menghemat Listrik</t>
-  </si>
-  <si>
     <t>cara Menghitung Tagihan Listrik</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Apa itu Earth Hour</t>
+  </si>
+  <si>
+    <t>Kenapa Menghemat Listrik?</t>
   </si>
 </sst>
 </file>
@@ -276,36 +276,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,14 +669,14 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -697,8 +697,8 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -721,8 +721,8 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -745,8 +745,8 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -769,10 +769,10 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -793,10 +793,10 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -839,14 +839,14 @@
       <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -867,10 +867,10 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -891,10 +891,10 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -915,10 +915,10 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -939,10 +939,10 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
@@ -983,12 +983,12 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -1009,10 +1009,10 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -1033,10 +1033,10 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -1077,12 +1077,12 @@
       <c r="R19" s="12"/>
     </row>
     <row r="20" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -1103,10 +1103,10 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>10</v>
@@ -1127,11 +1127,11 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="1">
         <f>SUM(D3:D21)</f>
         <v>82</v>
@@ -1194,11 +1194,11 @@
       </c>
     </row>
     <row r="23" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="1">
         <f>SUM(D3:D21)</f>
         <v>82</v>
